--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Thbs2-Cd47.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Thbs2-Cd47.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.45962432165737</v>
+        <v>6.507922666666667</v>
       </c>
       <c r="H2">
-        <v>3.45962432165737</v>
+        <v>19.523768</v>
       </c>
       <c r="I2">
-        <v>0.01260817656811338</v>
+        <v>0.02333320049201848</v>
       </c>
       <c r="J2">
-        <v>0.01260817656811338</v>
+        <v>0.02333320049201848</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>58.3487074018278</v>
+        <v>59.02895333333333</v>
       </c>
       <c r="N2">
-        <v>58.3487074018278</v>
+        <v>177.08686</v>
       </c>
       <c r="O2">
-        <v>0.2009709379445411</v>
+        <v>0.2011980443121526</v>
       </c>
       <c r="P2">
-        <v>0.2009709379445411</v>
+        <v>0.2011980443121526</v>
       </c>
       <c r="Q2">
-        <v>201.8646072646329</v>
+        <v>384.1558633876089</v>
       </c>
       <c r="R2">
-        <v>201.8646072646329</v>
+        <v>3457.40277048848</v>
       </c>
       <c r="S2">
-        <v>0.002533877070664132</v>
+        <v>0.004694594306537477</v>
       </c>
       <c r="T2">
-        <v>0.002533877070664132</v>
+        <v>0.004694594306537476</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.45962432165737</v>
+        <v>6.507922666666667</v>
       </c>
       <c r="H3">
-        <v>3.45962432165737</v>
+        <v>19.523768</v>
       </c>
       <c r="I3">
-        <v>0.01260817656811338</v>
+        <v>0.02333320049201848</v>
       </c>
       <c r="J3">
-        <v>0.01260817656811338</v>
+        <v>0.02333320049201848</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>70.7088546489813</v>
+        <v>71.14312966666667</v>
       </c>
       <c r="N3">
-        <v>70.7088546489813</v>
+        <v>213.429389</v>
       </c>
       <c r="O3">
-        <v>0.2435430958551937</v>
+        <v>0.2424887745230654</v>
       </c>
       <c r="P3">
-        <v>0.2435430958551937</v>
+        <v>0.2424887745230655</v>
       </c>
       <c r="Q3">
-        <v>244.6260733001515</v>
+        <v>462.9939861353058</v>
       </c>
       <c r="R3">
-        <v>244.6260733001515</v>
+        <v>4166.945875217752</v>
       </c>
       <c r="S3">
-        <v>0.003070634354487245</v>
+        <v>0.00565803919301055</v>
       </c>
       <c r="T3">
-        <v>0.003070634354487245</v>
+        <v>0.00565803919301055</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.45962432165737</v>
+        <v>6.507922666666667</v>
       </c>
       <c r="H4">
-        <v>3.45962432165737</v>
+        <v>19.523768</v>
       </c>
       <c r="I4">
-        <v>0.01260817656811338</v>
+        <v>0.02333320049201848</v>
       </c>
       <c r="J4">
-        <v>0.01260817656811338</v>
+        <v>0.02333320049201848</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>68.0475983211664</v>
+        <v>68.402828</v>
       </c>
       <c r="N4">
-        <v>68.0475983211664</v>
+        <v>205.208484</v>
       </c>
       <c r="O4">
-        <v>0.2343769085628416</v>
+        <v>0.233148555782522</v>
       </c>
       <c r="P4">
-        <v>0.2343769085628416</v>
+        <v>0.233148555782522</v>
       </c>
       <c r="Q4">
-        <v>235.4191261822785</v>
+        <v>445.1603148053013</v>
       </c>
       <c r="R4">
-        <v>235.4191261822785</v>
+        <v>4006.442833247712</v>
       </c>
       <c r="S4">
-        <v>0.002955065446648873</v>
+        <v>0.005440101996498141</v>
       </c>
       <c r="T4">
-        <v>0.002955065446648873</v>
+        <v>0.00544010199649814</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.45962432165737</v>
+        <v>6.507922666666667</v>
       </c>
       <c r="H5">
-        <v>3.45962432165737</v>
+        <v>19.523768</v>
       </c>
       <c r="I5">
-        <v>0.01260817656811338</v>
+        <v>0.02333320049201848</v>
       </c>
       <c r="J5">
-        <v>0.01260817656811338</v>
+        <v>0.02333320049201848</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>74.3184298140351</v>
+        <v>74.34717300000001</v>
       </c>
       <c r="N5">
-        <v>74.3184298140351</v>
+        <v>223.041519</v>
       </c>
       <c r="O5">
-        <v>0.255975585601821</v>
+        <v>0.2534096398976854</v>
       </c>
       <c r="P5">
-        <v>0.255975585601821</v>
+        <v>0.2534096398976854</v>
       </c>
       <c r="Q5">
-        <v>257.113847332022</v>
+        <v>483.8456523692881</v>
       </c>
       <c r="R5">
-        <v>257.113847332022</v>
+        <v>4354.610871323593</v>
       </c>
       <c r="S5">
-        <v>0.003227385380393982</v>
+        <v>0.0059128579343429</v>
       </c>
       <c r="T5">
-        <v>0.003227385380393982</v>
+        <v>0.0059128579343429</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.45962432165737</v>
+        <v>6.507922666666667</v>
       </c>
       <c r="H6">
-        <v>3.45962432165737</v>
+        <v>19.523768</v>
       </c>
       <c r="I6">
-        <v>0.01260817656811338</v>
+        <v>0.02333320049201848</v>
       </c>
       <c r="J6">
-        <v>0.01260817656811338</v>
+        <v>0.02333320049201848</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>18.9104650689308</v>
+        <v>20.46522766666667</v>
       </c>
       <c r="N6">
-        <v>18.9104650689308</v>
+        <v>61.395683</v>
       </c>
       <c r="O6">
-        <v>0.06513347203560252</v>
+        <v>0.0697549854845745</v>
       </c>
       <c r="P6">
-        <v>0.06513347203560252</v>
+        <v>0.0697549854845745</v>
       </c>
       <c r="Q6">
-        <v>65.42310488632511</v>
+        <v>133.1861190103938</v>
       </c>
       <c r="R6">
-        <v>65.42310488632511</v>
+        <v>1198.675071093544</v>
       </c>
       <c r="S6">
-        <v>0.000821214315919152</v>
+        <v>0.001627607061629416</v>
       </c>
       <c r="T6">
-        <v>0.000821214315919152</v>
+        <v>0.001627607061629416</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>268.14510524654</v>
+        <v>269.5472716666666</v>
       </c>
       <c r="H7">
-        <v>268.14510524654</v>
+        <v>808.641815</v>
       </c>
       <c r="I7">
-        <v>0.9772219520078136</v>
+        <v>0.9664221371420065</v>
       </c>
       <c r="J7">
-        <v>0.9772219520078136</v>
+        <v>0.9664221371420064</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>58.3487074018278</v>
+        <v>59.02895333333333</v>
       </c>
       <c r="N7">
-        <v>58.3487074018278</v>
+        <v>177.08686</v>
       </c>
       <c r="O7">
-        <v>0.2009709379445411</v>
+        <v>0.2011980443121526</v>
       </c>
       <c r="P7">
-        <v>0.2009709379445411</v>
+        <v>0.2011980443121526</v>
       </c>
       <c r="Q7">
-        <v>15645.92028726268</v>
+        <v>15911.09332033899</v>
       </c>
       <c r="R7">
-        <v>15645.92028726268</v>
+        <v>143199.8398830509</v>
       </c>
       <c r="S7">
-        <v>0.1963932122750056</v>
+        <v>0.1944422439729427</v>
       </c>
       <c r="T7">
-        <v>0.1963932122750056</v>
+        <v>0.1944422439729427</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>268.14510524654</v>
+        <v>269.5472716666666</v>
       </c>
       <c r="H8">
-        <v>268.14510524654</v>
+        <v>808.641815</v>
       </c>
       <c r="I8">
-        <v>0.9772219520078136</v>
+        <v>0.9664221371420065</v>
       </c>
       <c r="J8">
-        <v>0.9772219520078136</v>
+        <v>0.9664221371420064</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>70.7088546489813</v>
+        <v>71.14312966666667</v>
       </c>
       <c r="N8">
-        <v>70.7088546489813</v>
+        <v>213.429389</v>
       </c>
       <c r="O8">
-        <v>0.2435430958551937</v>
+        <v>0.2424887745230654</v>
       </c>
       <c r="P8">
-        <v>0.2435430958551937</v>
+        <v>0.2424887745230655</v>
       </c>
       <c r="Q8">
-        <v>18960.23327171339</v>
+        <v>19176.43649947789</v>
       </c>
       <c r="R8">
-        <v>18960.23327171339</v>
+        <v>172587.9284953011</v>
       </c>
       <c r="S8">
-        <v>0.2379956595296384</v>
+        <v>0.234346519707527</v>
       </c>
       <c r="T8">
-        <v>0.2379956595296384</v>
+        <v>0.2343465197075271</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>268.14510524654</v>
+        <v>269.5472716666666</v>
       </c>
       <c r="H9">
-        <v>268.14510524654</v>
+        <v>808.641815</v>
       </c>
       <c r="I9">
-        <v>0.9772219520078136</v>
+        <v>0.9664221371420065</v>
       </c>
       <c r="J9">
-        <v>0.9772219520078136</v>
+        <v>0.9664221371420064</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>68.0475983211664</v>
+        <v>68.402828</v>
       </c>
       <c r="N9">
-        <v>68.0475983211664</v>
+        <v>205.208484</v>
       </c>
       <c r="O9">
-        <v>0.2343769085628416</v>
+        <v>0.233148555782522</v>
       </c>
       <c r="P9">
-        <v>0.2343769085628416</v>
+        <v>0.233148555782522</v>
       </c>
       <c r="Q9">
-        <v>18246.63041360345</v>
+        <v>18437.79566168427</v>
       </c>
       <c r="R9">
-        <v>18246.63041360345</v>
+        <v>165940.1609551584</v>
       </c>
       <c r="S9">
-        <v>0.2290382600913369</v>
+        <v>0.2253199255509172</v>
       </c>
       <c r="T9">
-        <v>0.2290382600913369</v>
+        <v>0.2253199255509172</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>268.14510524654</v>
+        <v>269.5472716666666</v>
       </c>
       <c r="H10">
-        <v>268.14510524654</v>
+        <v>808.641815</v>
       </c>
       <c r="I10">
-        <v>0.9772219520078136</v>
+        <v>0.9664221371420065</v>
       </c>
       <c r="J10">
-        <v>0.9772219520078136</v>
+        <v>0.9664221371420064</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>74.3184298140351</v>
+        <v>74.34717300000001</v>
       </c>
       <c r="N10">
-        <v>74.3184298140351</v>
+        <v>223.041519</v>
       </c>
       <c r="O10">
-        <v>0.255975585601821</v>
+        <v>0.2534096398976854</v>
       </c>
       <c r="P10">
-        <v>0.255975585601821</v>
+        <v>0.2534096398976854</v>
       </c>
       <c r="Q10">
-        <v>19928.12318424204</v>
+        <v>20040.07763827966</v>
       </c>
       <c r="R10">
-        <v>19928.12318424204</v>
+        <v>180360.698744517</v>
       </c>
       <c r="S10">
-        <v>0.2501449614281547</v>
+        <v>0.2449006857623074</v>
       </c>
       <c r="T10">
-        <v>0.2501449614281547</v>
+        <v>0.2449006857623074</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>268.14510524654</v>
+        <v>269.5472716666666</v>
       </c>
       <c r="H11">
-        <v>268.14510524654</v>
+        <v>808.641815</v>
       </c>
       <c r="I11">
-        <v>0.9772219520078136</v>
+        <v>0.9664221371420065</v>
       </c>
       <c r="J11">
-        <v>0.9772219520078136</v>
+        <v>0.9664221371420064</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>18.9104650689308</v>
+        <v>20.46522766666667</v>
       </c>
       <c r="N11">
-        <v>18.9104650689308</v>
+        <v>61.395683</v>
       </c>
       <c r="O11">
-        <v>0.06513347203560252</v>
+        <v>0.0697549854845745</v>
       </c>
       <c r="P11">
-        <v>0.06513347203560252</v>
+        <v>0.0697549854845745</v>
       </c>
       <c r="Q11">
-        <v>5070.748646169468</v>
+        <v>5516.346281587183</v>
       </c>
       <c r="R11">
-        <v>5070.748646169468</v>
+        <v>49647.11653428464</v>
       </c>
       <c r="S11">
-        <v>0.06364985868367783</v>
+        <v>0.06741276214831213</v>
       </c>
       <c r="T11">
-        <v>0.06364985868367783</v>
+        <v>0.06741276214831213</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>2.79056486374348</v>
+        <v>0.035174</v>
       </c>
       <c r="H12">
-        <v>2.79056486374348</v>
+        <v>0.105522</v>
       </c>
       <c r="I12">
-        <v>0.01016987142407295</v>
+        <v>0.0001261112087748008</v>
       </c>
       <c r="J12">
-        <v>0.01016987142407295</v>
+        <v>0.0001261112087748008</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>58.3487074018278</v>
+        <v>59.02895333333333</v>
       </c>
       <c r="N12">
-        <v>58.3487074018278</v>
+        <v>177.08686</v>
       </c>
       <c r="O12">
-        <v>0.2009709379445411</v>
+        <v>0.2011980443121526</v>
       </c>
       <c r="P12">
-        <v>0.2009709379445411</v>
+        <v>0.2011980443121526</v>
       </c>
       <c r="Q12">
-        <v>162.8258527203898</v>
+        <v>2.076284404546667</v>
       </c>
       <c r="R12">
-        <v>162.8258527203898</v>
+        <v>18.68655964092</v>
       </c>
       <c r="S12">
-        <v>0.002043848598871328</v>
+        <v>2.53733285713315E-05</v>
       </c>
       <c r="T12">
-        <v>0.002043848598871328</v>
+        <v>2.53733285713315E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>2.79056486374348</v>
+        <v>0.035174</v>
       </c>
       <c r="H13">
-        <v>2.79056486374348</v>
+        <v>0.105522</v>
       </c>
       <c r="I13">
-        <v>0.01016987142407295</v>
+        <v>0.0001261112087748008</v>
       </c>
       <c r="J13">
-        <v>0.01016987142407295</v>
+        <v>0.0001261112087748008</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>70.7088546489813</v>
+        <v>71.14312966666667</v>
       </c>
       <c r="N13">
-        <v>70.7088546489813</v>
+        <v>213.429389</v>
       </c>
       <c r="O13">
-        <v>0.2435430958551937</v>
+        <v>0.2424887745230654</v>
       </c>
       <c r="P13">
-        <v>0.2435430958551937</v>
+        <v>0.2424887745230655</v>
       </c>
       <c r="Q13">
-        <v>197.317645338992</v>
+        <v>2.502388442895334</v>
       </c>
       <c r="R13">
-        <v>197.317645338992</v>
+        <v>22.521495986058</v>
       </c>
       <c r="S13">
-        <v>0.002476801971067995</v>
+        <v>3.05805524694239E-05</v>
       </c>
       <c r="T13">
-        <v>0.002476801971067995</v>
+        <v>3.05805524694239E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>2.79056486374348</v>
+        <v>0.035174</v>
       </c>
       <c r="H14">
-        <v>2.79056486374348</v>
+        <v>0.105522</v>
       </c>
       <c r="I14">
-        <v>0.01016987142407295</v>
+        <v>0.0001261112087748008</v>
       </c>
       <c r="J14">
-        <v>0.01016987142407295</v>
+        <v>0.0001261112087748008</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>68.0475983211664</v>
+        <v>68.402828</v>
       </c>
       <c r="N14">
-        <v>68.0475983211664</v>
+        <v>205.208484</v>
       </c>
       <c r="O14">
-        <v>0.2343769085628416</v>
+        <v>0.233148555782522</v>
       </c>
       <c r="P14">
-        <v>0.2343769085628416</v>
+        <v>0.233148555782522</v>
       </c>
       <c r="Q14">
-        <v>189.8912369371768</v>
+        <v>2.406001072072</v>
       </c>
       <c r="R14">
-        <v>189.8912369371768</v>
+        <v>21.654009648648</v>
       </c>
       <c r="S14">
-        <v>0.002383583024855802</v>
+        <v>2.940264619383292E-05</v>
       </c>
       <c r="T14">
-        <v>0.002383583024855802</v>
+        <v>2.940264619383291E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>2.79056486374348</v>
+        <v>0.035174</v>
       </c>
       <c r="H15">
-        <v>2.79056486374348</v>
+        <v>0.105522</v>
       </c>
       <c r="I15">
-        <v>0.01016987142407295</v>
+        <v>0.0001261112087748008</v>
       </c>
       <c r="J15">
-        <v>0.01016987142407295</v>
+        <v>0.0001261112087748008</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>74.3184298140351</v>
+        <v>74.34717300000001</v>
       </c>
       <c r="N15">
-        <v>74.3184298140351</v>
+        <v>223.041519</v>
       </c>
       <c r="O15">
-        <v>0.255975585601821</v>
+        <v>0.2534096398976854</v>
       </c>
       <c r="P15">
-        <v>0.255975585601821</v>
+        <v>0.2534096398976854</v>
       </c>
       <c r="Q15">
-        <v>207.3903989676323</v>
+        <v>2.615087463102001</v>
       </c>
       <c r="R15">
-        <v>207.3903989676323</v>
+        <v>23.535787167918</v>
       </c>
       <c r="S15">
-        <v>0.0026032387932723</v>
+        <v>3.195779600268409E-05</v>
       </c>
       <c r="T15">
-        <v>0.0026032387932723</v>
+        <v>3.195779600268409E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,371 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.035174</v>
+      </c>
+      <c r="H16">
+        <v>0.105522</v>
+      </c>
+      <c r="I16">
+        <v>0.0001261112087748008</v>
+      </c>
+      <c r="J16">
+        <v>0.0001261112087748008</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>20.46522766666667</v>
+      </c>
+      <c r="N16">
+        <v>61.395683</v>
+      </c>
+      <c r="O16">
+        <v>0.0697549854845745</v>
+      </c>
+      <c r="P16">
+        <v>0.0697549854845745</v>
+      </c>
+      <c r="Q16">
+        <v>0.7198439179473334</v>
+      </c>
+      <c r="R16">
+        <v>6.478595261526</v>
+      </c>
+      <c r="S16">
+        <v>8.796885537528373E-06</v>
+      </c>
+      <c r="T16">
+        <v>8.796885537528371E-06</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>2.822191</v>
+      </c>
+      <c r="H17">
+        <v>8.466573</v>
+      </c>
+      <c r="I17">
+        <v>0.01011855115720031</v>
+      </c>
+      <c r="J17">
+        <v>0.01011855115720031</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>59.02895333333333</v>
+      </c>
+      <c r="N17">
+        <v>177.08686</v>
+      </c>
+      <c r="O17">
+        <v>0.2011980443121526</v>
+      </c>
+      <c r="P17">
+        <v>0.2011980443121526</v>
+      </c>
+      <c r="Q17">
+        <v>166.5909808367533</v>
+      </c>
+      <c r="R17">
+        <v>1499.31882753078</v>
+      </c>
+      <c r="S17">
+        <v>0.002035832704101171</v>
+      </c>
+      <c r="T17">
+        <v>0.002035832704101171</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>2.822191</v>
+      </c>
+      <c r="H18">
+        <v>8.466573</v>
+      </c>
+      <c r="I18">
+        <v>0.01011855115720031</v>
+      </c>
+      <c r="J18">
+        <v>0.01011855115720031</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>71.14312966666667</v>
+      </c>
+      <c r="N18">
+        <v>213.429389</v>
+      </c>
+      <c r="O18">
+        <v>0.2424887745230654</v>
+      </c>
+      <c r="P18">
+        <v>0.2424887745230655</v>
+      </c>
+      <c r="Q18">
+        <v>200.7795002570997</v>
+      </c>
+      <c r="R18">
+        <v>1807.015502313897</v>
+      </c>
+      <c r="S18">
+        <v>0.00245363507005845</v>
+      </c>
+      <c r="T18">
+        <v>0.00245363507005845</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>2.822191</v>
+      </c>
+      <c r="H19">
+        <v>8.466573</v>
+      </c>
+      <c r="I19">
+        <v>0.01011855115720031</v>
+      </c>
+      <c r="J19">
+        <v>0.01011855115720031</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>68.402828</v>
+      </c>
+      <c r="N19">
+        <v>205.208484</v>
+      </c>
+      <c r="O19">
+        <v>0.233148555782522</v>
+      </c>
+      <c r="P19">
+        <v>0.233148555782522</v>
+      </c>
+      <c r="Q19">
+        <v>193.045845556148</v>
+      </c>
+      <c r="R19">
+        <v>1737.412610005332</v>
+      </c>
+      <c r="S19">
+        <v>0.002359125588912819</v>
+      </c>
+      <c r="T19">
+        <v>0.002359125588912819</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>2.79056486374348</v>
-      </c>
-      <c r="H16">
-        <v>2.79056486374348</v>
-      </c>
-      <c r="I16">
-        <v>0.01016987142407295</v>
-      </c>
-      <c r="J16">
-        <v>0.01016987142407295</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>18.9104650689308</v>
-      </c>
-      <c r="N16">
-        <v>18.9104650689308</v>
-      </c>
-      <c r="O16">
-        <v>0.06513347203560252</v>
-      </c>
-      <c r="P16">
-        <v>0.06513347203560252</v>
-      </c>
-      <c r="Q16">
-        <v>52.77087937840672</v>
-      </c>
-      <c r="R16">
-        <v>52.77087937840672</v>
-      </c>
-      <c r="S16">
-        <v>0.0006623990360055288</v>
-      </c>
-      <c r="T16">
-        <v>0.0006623990360055288</v>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>2.822191</v>
+      </c>
+      <c r="H20">
+        <v>8.466573</v>
+      </c>
+      <c r="I20">
+        <v>0.01011855115720031</v>
+      </c>
+      <c r="J20">
+        <v>0.01011855115720031</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>74.34717300000001</v>
+      </c>
+      <c r="N20">
+        <v>223.041519</v>
+      </c>
+      <c r="O20">
+        <v>0.2534096398976854</v>
+      </c>
+      <c r="P20">
+        <v>0.2534096398976854</v>
+      </c>
+      <c r="Q20">
+        <v>209.821922516043</v>
+      </c>
+      <c r="R20">
+        <v>1888.397302644387</v>
+      </c>
+      <c r="S20">
+        <v>0.00256413840503244</v>
+      </c>
+      <c r="T20">
+        <v>0.002564138405032439</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>2.822191</v>
+      </c>
+      <c r="H21">
+        <v>8.466573</v>
+      </c>
+      <c r="I21">
+        <v>0.01011855115720031</v>
+      </c>
+      <c r="J21">
+        <v>0.01011855115720031</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>20.46522766666667</v>
+      </c>
+      <c r="N21">
+        <v>61.395683</v>
+      </c>
+      <c r="O21">
+        <v>0.0697549854845745</v>
+      </c>
+      <c r="P21">
+        <v>0.0697549854845745</v>
+      </c>
+      <c r="Q21">
+        <v>57.75678133381767</v>
+      </c>
+      <c r="R21">
+        <v>519.811032004359</v>
+      </c>
+      <c r="S21">
+        <v>0.0007058193890954322</v>
+      </c>
+      <c r="T21">
+        <v>0.0007058193890954321</v>
       </c>
     </row>
   </sheetData>
